--- a/src/main/resources/documents/WRN11NMB1BPUSubmissionTemplates.xlsx
+++ b/src/main/resources/documents/WRN11NMB1BPUSubmissionTemplates.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="201">
   <si>
     <t>(Do Not Modify) 1BPU Submission</t>
   </si>
@@ -345,6 +345,285 @@
   </si>
   <si>
     <t>SN2024/09/12/80785</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-43447</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-92491</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/40156</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-73995</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-87378</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/16278</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-42434</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-70166</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/79892</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-97639</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-65326</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/62991</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-41709</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-64038</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/15428</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-86410</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-44181</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/47554</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-45992</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-13363</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/74314</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-21205</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-48468</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/94678</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-50821</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-69977</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/90683</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-29707</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-46666</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/42987</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-28571</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-84864</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/16065</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-29746</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-45754</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/50266</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-68925</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-61325</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/34830</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-72035</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-10773</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/59412</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-38093</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-23681</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/96800</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-87620</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-98344</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/35255</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-89263</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-14480</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/37090</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-50107</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-41492</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/86132</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-26192</t>
+  </si>
+  <si>
+    <t>A2024/09/13/PP-28630</t>
+  </si>
+  <si>
+    <t>SN2024/09/13/18562</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-41762</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-47112</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/50770</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-23419</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-94858</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/52837</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-10547</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-62370</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/30474</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-22602</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-72416</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/10262</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-18562</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-94559</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/75984</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-43691</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-76590</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/91072</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-13144</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-20776</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/97631</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-86891</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-60986</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/88796</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-80538</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-27294</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/22682</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-96122</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-45502</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/42511</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-82064</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-79892</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/33566</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-59615</t>
+  </si>
+  <si>
+    <t>A2024/09/16/PP-37994</t>
+  </si>
+  <si>
+    <t>SN2024/09/16/12932</t>
   </si>
 </sst>
 </file>
@@ -777,16 +1056,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
-        <v>105</v>
+        <v>198</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>

--- a/src/main/resources/documents/WRN11NMB1BPUSubmissionTemplates.xlsx
+++ b/src/main/resources/documents/WRN11NMB1BPUSubmissionTemplates.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="222">
   <si>
     <t>(Do Not Modify) 1BPU Submission</t>
   </si>
@@ -624,6 +624,69 @@
   </si>
   <si>
     <t>SN2024/09/16/12932</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-44996</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-73370</t>
+  </si>
+  <si>
+    <t>SN2024/09/30/38642</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-79259</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-55201</t>
+  </si>
+  <si>
+    <t>SN2024/09/30/65953</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-54173</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-96592</t>
+  </si>
+  <si>
+    <t>SN2024/09/30/67222</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-95385</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-40506</t>
+  </si>
+  <si>
+    <t>SN2024/09/30/47512</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-13941</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-92988</t>
+  </si>
+  <si>
+    <t>SN2024/09/30/69089</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-11183</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-17016</t>
+  </si>
+  <si>
+    <t>SN2024/09/30/37894</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-14130</t>
+  </si>
+  <si>
+    <t>A2024/09/30/PP-22956</t>
+  </si>
+  <si>
+    <t>SN2024/09/30/13467</t>
   </si>
 </sst>
 </file>
@@ -1056,16 +1119,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>

--- a/src/main/resources/documents/WRN11NMB1BPUSubmissionTemplates.xlsx
+++ b/src/main/resources/documents/WRN11NMB1BPUSubmissionTemplates.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="231">
   <si>
     <t>(Do Not Modify) 1BPU Submission</t>
   </si>
@@ -687,6 +687,33 @@
   </si>
   <si>
     <t>SN2024/09/30/13467</t>
+  </si>
+  <si>
+    <t>A2024/10/03/PP-81734</t>
+  </si>
+  <si>
+    <t>A2024/10/03/PP-24936</t>
+  </si>
+  <si>
+    <t>SN2024/10/03/34942</t>
+  </si>
+  <si>
+    <t>A2024/10/03/PP-35161</t>
+  </si>
+  <si>
+    <t>A2024/10/03/PP-40724</t>
+  </si>
+  <si>
+    <t>SN2024/10/03/82587</t>
+  </si>
+  <si>
+    <t>A2024/10/07/PP-40398</t>
+  </si>
+  <si>
+    <t>A2024/10/07/PP-39733</t>
+  </si>
+  <si>
+    <t>SN2024/10/07/53435</t>
   </si>
 </sst>
 </file>
@@ -1119,16 +1146,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>

--- a/src/main/resources/documents/WRN11NMB1BPUSubmissionTemplates.xlsx
+++ b/src/main/resources/documents/WRN11NMB1BPUSubmissionTemplates.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="234">
   <si>
     <t>(Do Not Modify) 1BPU Submission</t>
   </si>
@@ -714,6 +714,15 @@
   </si>
   <si>
     <t>SN2024/10/07/53435</t>
+  </si>
+  <si>
+    <t>A2024/11/07/PP-26015</t>
+  </si>
+  <si>
+    <t>A2024/11/07/PP-18633</t>
+  </si>
+  <si>
+    <t>SN2024/11/07/24205</t>
   </si>
 </sst>
 </file>
@@ -1146,16 +1155,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
